--- a/TRL/models/gradual_models_no_rules_22_03_2023_14_11_06.xlsx
+++ b/TRL/models/gradual_models_no_rules_22_03_2023_14_11_06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestEnvGitEnhance\testGitEnhance\TRL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E4C2BA93-6532-4743-8B10-003FCC7C62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E636FE45-3EE7-454A-B1EC-F9F32C69D752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
@@ -626,36 +626,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -664,22 +634,190 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>gradual_models_no_rules_22_03_2!$I$1</c:f>
+              <c:f>gradual_models_no_rules_22_03_2!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>num_of_overrides</c:v>
+                  <c:v>num_of_steps</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>gradual_models_no_rules_22_03_2!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gradual_models_no_rules_22_03_2!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14234</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13553</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13514</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-57C2-4610-A65D-5144DF47815B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gradual_models_no_rules_22_03_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_of_steps_with_override</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -760,76 +898,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gradual_models_no_rules_22_03_2!$I$2:$I$21</c:f>
+              <c:f>gradual_models_no_rules_22_03_2!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2012</c:v>
+                  <c:v>17751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>305</c:v>
+                  <c:v>30992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>735</c:v>
+                  <c:v>26080</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1255</c:v>
+                  <c:v>22014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1842</c:v>
+                  <c:v>15859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1993</c:v>
+                  <c:v>15300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1749</c:v>
+                  <c:v>12998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2110</c:v>
+                  <c:v>12256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2368</c:v>
+                  <c:v>10690</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1780</c:v>
+                  <c:v>8742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2344</c:v>
+                  <c:v>8936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2305</c:v>
+                  <c:v>10580</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2211</c:v>
+                  <c:v>8082</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2170</c:v>
+                  <c:v>8744</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2099</c:v>
+                  <c:v>8153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2208</c:v>
+                  <c:v>9492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1739</c:v>
+                  <c:v>7972</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1188</c:v>
+                  <c:v>8444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-57C2-4610-A65D-5144DF47815B}"/>
+              <c16:uniqueId val="{00000006-57C2-4610-A65D-5144DF47815B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1601,194 +1739,6 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>num_of_steps</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$A$2:$A$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>96</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$F$2:$F$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>2409</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7551</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>27980</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>30999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17819</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>27581</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>19147</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>18463</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>20962</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>15964</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>14832</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>18134</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13032</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>15939</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>13174</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>14234</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>13553</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>13514</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>9766</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>8997</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-57C2-4610-A65D-5144DF47815B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
                 <c:tx>
@@ -1977,28 +1927,28 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
+                <c:idx val="7"/>
+                <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$H$1</c15:sqref>
+                          <c15:sqref>gradual_models_no_rules_22_03_2!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>num_of_steps_with_override</c:v>
+                        <c:v>num_of_overrides</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:lumMod val="60000"/>
                     </a:schemeClr>
                   </a:solidFill>
@@ -2088,7 +2038,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$H$2:$H$21</c15:sqref>
+                          <c15:sqref>gradual_models_no_rules_22_03_2!$I$2:$I$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2096,71 +2046,71 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
-                        <c:v>1897</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17751</c:v>
+                        <c:v>2012</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>30992</c:v>
+                        <c:v>305</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>26080</c:v>
+                        <c:v>735</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>22014</c:v>
+                        <c:v>1255</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>15859</c:v>
+                        <c:v>1842</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>15300</c:v>
+                        <c:v>1993</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>12998</c:v>
+                        <c:v>1749</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>12256</c:v>
+                        <c:v>2110</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>10690</c:v>
+                        <c:v>2368</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>8742</c:v>
+                        <c:v>1780</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>8936</c:v>
+                        <c:v>2344</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>10580</c:v>
+                        <c:v>2305</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>8082</c:v>
+                        <c:v>2211</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>8744</c:v>
+                        <c:v>2170</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>8153</c:v>
+                        <c:v>2099</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>9492</c:v>
+                        <c:v>2208</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>7972</c:v>
+                        <c:v>1739</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>8444</c:v>
+                        <c:v>1188</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-57C2-4610-A65D-5144DF47815B}"/>
+                    <c16:uniqueId val="{00000007-57C2-4610-A65D-5144DF47815B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9050,8 +9000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="F15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10134,7 +10084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
